--- a/output/Indonesia_aggregated.xlsx
+++ b/output/Indonesia_aggregated.xlsx
@@ -20,166 +20,166 @@
     <t xml:space="preserve">amountUSD</t>
   </si>
   <si>
+    <t xml:space="preserve">United States of America, Government of</t>
+  </si>
+  <si>
     <t xml:space="preserve">Denmark, Government of</t>
   </si>
   <si>
-    <t xml:space="preserve">United States of America, Government of</t>
+    <t xml:space="preserve">Austria, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">France, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saudi Arabia (Kingdom of), Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">European Commission's Humanitarian Aid and Civil Protection Department</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australia, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheikh Abdullah Al-Nouri Charity Society</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qatar Charity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swiss Solidarity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taiwan International Cooperation and Development Fund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netherlands, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finland, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liechtenstein, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Zealand, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norway, Government of</t>
   </si>
   <si>
     <t xml:space="preserve">Central Emergency Response Fund</t>
   </si>
   <si>
+    <t xml:space="preserve">Jersey Overseas Aid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Fund for UNICEF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Canada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Netherlands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Sweden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Malaysia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Indonesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Education Cannot Wait Fund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Portugal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Australia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Korea (Republic of)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Norway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Austria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Belgium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Czech Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Denmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Luxembourg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Switzerland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canada, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luxembourg, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samenwerkende Hulporganisaties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Nations Population Fund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singapore Red Cross Society</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azerbaijan, Government of</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ireland, Government of</t>
   </si>
   <si>
-    <t xml:space="preserve">Austria, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">European Commission's Humanitarian Aid and Civil Protection Department</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Australia, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finland, Government of</t>
-  </si>
-  <si>
     <t xml:space="preserve">Monaco, Government of</t>
   </si>
   <si>
+    <t xml:space="preserve">Italy, Government of</t>
+  </si>
+  <si>
     <t xml:space="preserve">Belgium, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canada, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jersey Overseas Aid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liechtenstein, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sweden, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Singapore Red Cross Society</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norway, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">France, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qatar Charity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taiwan International Cooperation and Development Fund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swiss Solidarity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spain, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saudi Arabia (Kingdom of), Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US Fund for UNICEF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Canada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Japan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Netherlands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Sweden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Italy, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azerbaijan, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Nations Population Fund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Malaysia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Indonesia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Education Cannot Wait Fund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Portugal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Germany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Australia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Italy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Korea (Republic of)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Norway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Austria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Zealand, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samenwerkende Hulporganisaties</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Belgium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Netherlands, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Czech Republic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Denmark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Luxembourg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Switzerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luxembourg, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sheikh Abdullah Al-Nouri Charity Society</t>
   </si>
 </sst>
 </file>
@@ -524,7 +524,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>699753</v>
+        <v>14157836</v>
       </c>
     </row>
     <row r="3">
@@ -532,7 +532,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>14157836</v>
+        <v>699753</v>
       </c>
     </row>
     <row r="4">
@@ -540,7 +540,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>14425047</v>
+        <v>1169591</v>
       </c>
     </row>
     <row r="5">
@@ -548,7 +548,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>501437</v>
+        <v>2791562</v>
       </c>
     </row>
     <row r="6">
@@ -556,7 +556,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>1169591</v>
+        <v>1034819</v>
       </c>
     </row>
     <row r="7">
@@ -564,7 +564,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>2095295</v>
+        <v>315948</v>
       </c>
     </row>
     <row r="8">
@@ -572,7 +572,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>6809544</v>
+        <v>1690120</v>
       </c>
     </row>
     <row r="9">
@@ -580,7 +580,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>2791562</v>
+        <v>2095295</v>
       </c>
     </row>
     <row r="10">
@@ -588,7 +588,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>6928508</v>
+        <v>6809544</v>
       </c>
     </row>
     <row r="11">
@@ -596,7 +596,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>113636</v>
+        <v>21287</v>
       </c>
     </row>
     <row r="12">
@@ -604,7 +604,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>113636</v>
+        <v>6928508</v>
       </c>
     </row>
     <row r="13">
@@ -612,7 +612,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>200000</v>
+        <v>258587</v>
       </c>
     </row>
     <row r="14">
@@ -620,7 +620,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>790918</v>
+        <v>8641870</v>
       </c>
     </row>
     <row r="15">
@@ -628,7 +628,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>447570</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="16">
@@ -636,7 +636,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>177970</v>
+        <v>4441855</v>
       </c>
     </row>
     <row r="17">
@@ -644,7 +644,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>2897107</v>
+        <v>113636</v>
       </c>
     </row>
     <row r="18">
@@ -652,7 +652,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>50000</v>
+        <v>2897107</v>
       </c>
     </row>
     <row r="19">
@@ -660,7 +660,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="n">
-        <v>1231072</v>
+        <v>177970</v>
       </c>
     </row>
     <row r="20">
@@ -668,7 +668,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="n">
-        <v>1034819</v>
+        <v>2759429</v>
       </c>
     </row>
     <row r="21">
@@ -676,7 +676,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="n">
-        <v>258587</v>
+        <v>1231072</v>
       </c>
     </row>
     <row r="22">
@@ -684,7 +684,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="n">
-        <v>400000</v>
+        <v>14425047</v>
       </c>
     </row>
     <row r="23">
@@ -692,7 +692,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="n">
-        <v>8641870</v>
+        <v>447570</v>
       </c>
     </row>
     <row r="24">
@@ -700,7 +700,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="n">
-        <v>315948</v>
+        <v>560669</v>
       </c>
     </row>
     <row r="25">
@@ -708,7 +708,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="n">
-        <v>1690120</v>
+        <v>32214</v>
       </c>
     </row>
     <row r="26">
@@ -716,7 +716,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="n">
-        <v>560669</v>
+        <v>156480</v>
       </c>
     </row>
     <row r="27">
@@ -724,7 +724,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="n">
-        <v>32214</v>
+        <v>258947</v>
       </c>
     </row>
     <row r="28">
@@ -732,7 +732,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="n">
-        <v>156480</v>
+        <v>24750</v>
       </c>
     </row>
     <row r="29">
@@ -740,7 +740,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="n">
-        <v>258947</v>
+        <v>262506</v>
       </c>
     </row>
     <row r="30">
@@ -748,7 +748,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="n">
-        <v>24750</v>
+        <v>125267</v>
       </c>
     </row>
     <row r="31">
@@ -756,7 +756,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="n">
-        <v>284156</v>
+        <v>1600000</v>
       </c>
     </row>
     <row r="32">
@@ -764,7 +764,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="n">
-        <v>100000</v>
+        <v>1557982</v>
       </c>
     </row>
     <row r="33">
@@ -772,7 +772,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="n">
-        <v>94142</v>
+        <v>547021</v>
       </c>
     </row>
     <row r="34">
@@ -780,7 +780,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="n">
-        <v>262506</v>
+        <v>308599</v>
       </c>
     </row>
     <row r="35">
@@ -788,7 +788,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="n">
-        <v>125267</v>
+        <v>159820</v>
       </c>
     </row>
     <row r="36">
@@ -796,7 +796,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="n">
-        <v>1600000</v>
+        <v>113259</v>
       </c>
     </row>
     <row r="37">
@@ -804,7 +804,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="n">
-        <v>1557982</v>
+        <v>133597</v>
       </c>
     </row>
     <row r="38">
@@ -812,7 +812,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="n">
-        <v>547021</v>
+        <v>77872</v>
       </c>
     </row>
     <row r="39">
@@ -820,7 +820,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="n">
-        <v>308599</v>
+        <v>119995</v>
       </c>
     </row>
     <row r="40">
@@ -828,7 +828,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="n">
-        <v>159820</v>
+        <v>56117</v>
       </c>
     </row>
     <row r="41">
@@ -836,7 +836,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="n">
-        <v>113259</v>
+        <v>161802</v>
       </c>
     </row>
     <row r="42">
@@ -844,7 +844,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="n">
-        <v>133597</v>
+        <v>12514</v>
       </c>
     </row>
     <row r="43">
@@ -852,7 +852,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="n">
-        <v>77872</v>
+        <v>68959</v>
       </c>
     </row>
     <row r="44">
@@ -860,7 +860,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="n">
-        <v>119995</v>
+        <v>228119</v>
       </c>
     </row>
     <row r="45">
@@ -868,7 +868,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="n">
-        <v>56117</v>
+        <v>234581</v>
       </c>
     </row>
     <row r="46">
@@ -876,7 +876,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="n">
-        <v>2759429</v>
+        <v>790918</v>
       </c>
     </row>
     <row r="47">
@@ -884,7 +884,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="n">
-        <v>89188</v>
+        <v>219747</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="n">
-        <v>161802</v>
+        <v>89188</v>
       </c>
     </row>
     <row r="49">
@@ -900,7 +900,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="n">
-        <v>4441855</v>
+        <v>94142</v>
       </c>
     </row>
     <row r="50">
@@ -908,7 +908,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="n">
-        <v>12514</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="51">
@@ -916,7 +916,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="n">
-        <v>68959</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="52">
@@ -924,7 +924,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="n">
-        <v>228119</v>
+        <v>501437</v>
       </c>
     </row>
     <row r="53">
@@ -932,7 +932,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="n">
-        <v>234581</v>
+        <v>113636</v>
       </c>
     </row>
     <row r="54">
@@ -940,7 +940,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="n">
-        <v>219747</v>
+        <v>284156</v>
       </c>
     </row>
     <row r="55">
@@ -948,7 +948,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="n">
-        <v>21287</v>
+        <v>200000</v>
       </c>
     </row>
   </sheetData>
